--- a/downloads/extracted_energia_c_ret_0823.xlsx
+++ b/downloads/extracted_energia_c_ret_0823.xlsx
@@ -290,9 +290,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -345,12 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +664,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>45139</v>
       </c>
     </row>
